--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H2">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I2">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J2">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N2">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O2">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P2">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q2">
-        <v>17.55920726378067</v>
+        <v>20.0496025968275</v>
       </c>
       <c r="R2">
-        <v>17.55920726378067</v>
+        <v>80.19841038731001</v>
       </c>
       <c r="S2">
-        <v>0.001625917473788961</v>
+        <v>0.00164121076107479</v>
       </c>
       <c r="T2">
-        <v>0.001625917473788961</v>
+        <v>0.001195414870249241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H3">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I3">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J3">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N3">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O3">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P3">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q3">
-        <v>20.64290168937845</v>
+        <v>24.73982816162667</v>
       </c>
       <c r="R3">
-        <v>20.64290168937845</v>
+        <v>148.43896896976</v>
       </c>
       <c r="S3">
-        <v>0.001911456141627745</v>
+        <v>0.002025140997678805</v>
       </c>
       <c r="T3">
-        <v>0.001911456141627745</v>
+        <v>0.002212589376447223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H4">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I4">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J4">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N4">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O4">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P4">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q4">
-        <v>4.09905895803433</v>
+        <v>5.871677576273333</v>
       </c>
       <c r="R4">
-        <v>4.09905895803433</v>
+        <v>35.23006545764</v>
       </c>
       <c r="S4">
-        <v>0.0003795576580331454</v>
+        <v>0.0004806409691764248</v>
       </c>
       <c r="T4">
-        <v>0.0003795576580331454</v>
+        <v>0.0005251294124725054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H5">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I5">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J5">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N5">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O5">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P5">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q5">
-        <v>11.16810784859433</v>
+        <v>15.91610140634</v>
       </c>
       <c r="R5">
-        <v>11.16810784859433</v>
+        <v>95.49660843804001</v>
       </c>
       <c r="S5">
-        <v>0.001034125369523058</v>
+        <v>0.001302852601506232</v>
       </c>
       <c r="T5">
-        <v>0.001034125369523058</v>
+        <v>0.001423445492671082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H6">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I6">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J6">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N6">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O6">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P6">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q6">
-        <v>34.83592502825647</v>
+        <v>44.87976983345334</v>
       </c>
       <c r="R6">
-        <v>34.83592502825647</v>
+        <v>269.27861900072</v>
       </c>
       <c r="S6">
-        <v>0.003225677467562914</v>
+        <v>0.003673746691462019</v>
       </c>
       <c r="T6">
-        <v>0.003225677467562914</v>
+        <v>0.004013791094350362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H7">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I7">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J7">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.3843566022193</v>
+        <v>63.67333599999999</v>
       </c>
       <c r="N7">
-        <v>63.3843566022193</v>
+        <v>127.346672</v>
       </c>
       <c r="O7">
-        <v>0.8907580439843111</v>
+        <v>0.8715652181167722</v>
       </c>
       <c r="P7">
-        <v>0.8907580439843111</v>
+        <v>0.8279602359348489</v>
       </c>
       <c r="Q7">
-        <v>720.0399077100328</v>
+        <v>756.35295430972</v>
       </c>
       <c r="R7">
-        <v>720.0399077100328</v>
+        <v>3025.41181723888</v>
       </c>
       <c r="S7">
-        <v>0.06667302516475131</v>
+        <v>0.06191317766967814</v>
       </c>
       <c r="T7">
-        <v>0.06667302516475131</v>
+        <v>0.04509593466365516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H8">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I8">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J8">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N8">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O8">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P8">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q8">
-        <v>128.6212945713918</v>
+        <v>157.0352823833467</v>
       </c>
       <c r="R8">
-        <v>128.6212945713918</v>
+        <v>942.21169430008</v>
       </c>
       <c r="S8">
-        <v>0.011909854881453</v>
+        <v>0.01285451888990298</v>
       </c>
       <c r="T8">
-        <v>0.011909854881453</v>
+        <v>0.01404434158793838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H9">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I9">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J9">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N9">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O9">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P9">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q9">
-        <v>151.2093740401669</v>
+        <v>193.7707185324089</v>
       </c>
       <c r="R9">
-        <v>151.2093740401669</v>
+        <v>1743.93646679168</v>
       </c>
       <c r="S9">
-        <v>0.01400142727170381</v>
+        <v>0.01586159061760678</v>
       </c>
       <c r="T9">
-        <v>0.01400142727170381</v>
+        <v>0.02599462477005114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H10">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I10">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J10">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N10">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O10">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P10">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q10">
-        <v>30.02563053027707</v>
+        <v>45.98896869905777</v>
       </c>
       <c r="R10">
-        <v>30.02563053027707</v>
+        <v>413.9007182915199</v>
       </c>
       <c r="S10">
-        <v>0.002780262036168798</v>
+        <v>0.003764542960645429</v>
       </c>
       <c r="T10">
-        <v>0.002780262036168798</v>
+        <v>0.006169487288626053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H11">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I11">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J11">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N11">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O11">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P11">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q11">
-        <v>81.80645446119307</v>
+        <v>124.6603002087467</v>
       </c>
       <c r="R11">
-        <v>81.80645446119307</v>
+        <v>1121.94270187872</v>
       </c>
       <c r="S11">
-        <v>0.007574974301461499</v>
+        <v>0.0102043831139966</v>
       </c>
       <c r="T11">
-        <v>0.007574974301461499</v>
+        <v>0.01672336126010861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H12">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I12">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J12">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N12">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O12">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P12">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q12">
-        <v>255.1733519296456</v>
+        <v>351.5135671672178</v>
       </c>
       <c r="R12">
-        <v>255.1733519296456</v>
+        <v>3163.62210450496</v>
       </c>
       <c r="S12">
-        <v>0.02362810607079654</v>
+        <v>0.02877402912663761</v>
       </c>
       <c r="T12">
-        <v>0.02362810607079654</v>
+        <v>0.04715605819754298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H13">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I13">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J13">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.3843566022193</v>
+        <v>63.67333599999999</v>
       </c>
       <c r="N13">
-        <v>63.3843566022193</v>
+        <v>127.346672</v>
       </c>
       <c r="O13">
-        <v>0.8907580439843111</v>
+        <v>0.8715652181167722</v>
       </c>
       <c r="P13">
-        <v>0.8907580439843111</v>
+        <v>0.8279602359348489</v>
       </c>
       <c r="Q13">
-        <v>5274.296480557033</v>
+        <v>5924.012667477972</v>
       </c>
       <c r="R13">
-        <v>5274.296480557033</v>
+        <v>35544.07600486783</v>
       </c>
       <c r="S13">
-        <v>0.4883802942157932</v>
+        <v>0.4849249899919035</v>
       </c>
       <c r="T13">
-        <v>0.4883802942157932</v>
+        <v>0.5298099650639897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H14">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I14">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J14">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N14">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O14">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P14">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q14">
-        <v>10.95964266844391</v>
+        <v>0.03980615166483334</v>
       </c>
       <c r="R14">
-        <v>10.95964266844391</v>
+        <v>0.238836909989</v>
       </c>
       <c r="S14">
-        <v>0.001014822266940388</v>
+        <v>3.258432886826246E-06</v>
       </c>
       <c r="T14">
-        <v>0.001014822266940388</v>
+        <v>3.560035571607875E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H15">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I15">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J15">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N15">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O15">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P15">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q15">
-        <v>12.88434168791134</v>
+        <v>0.04911804846044444</v>
       </c>
       <c r="R15">
-        <v>12.88434168791134</v>
+        <v>0.442062436144</v>
       </c>
       <c r="S15">
-        <v>0.00119304225834009</v>
+        <v>4.02068167221579E-06</v>
       </c>
       <c r="T15">
-        <v>0.00119304225834009</v>
+        <v>6.589257906647496E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H16">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I16">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J16">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N16">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O16">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P16">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q16">
-        <v>2.558442461671111</v>
+        <v>0.01165753221288889</v>
       </c>
       <c r="R16">
-        <v>2.558442461671111</v>
+        <v>0.104917789916</v>
       </c>
       <c r="S16">
-        <v>0.0002369022838915481</v>
+        <v>9.542566852869508E-07</v>
       </c>
       <c r="T16">
-        <v>0.0002369022838915481</v>
+        <v>1.563874964772591E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H17">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I17">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J17">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N17">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O17">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P17">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q17">
-        <v>6.970614872557984</v>
+        <v>0.03159956629733334</v>
       </c>
       <c r="R17">
-        <v>6.970614872557984</v>
+        <v>0.2843960966760001</v>
       </c>
       <c r="S17">
-        <v>0.0006454530864683801</v>
+        <v>2.586662154624746E-06</v>
       </c>
       <c r="T17">
-        <v>0.0006454530864683801</v>
+        <v>4.23912794986178E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H18">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I18">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J18">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N18">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O18">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P18">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q18">
-        <v>21.74296849504752</v>
+        <v>0.0891035578408889</v>
       </c>
       <c r="R18">
-        <v>21.74296849504752</v>
+        <v>0.8019320205680002</v>
       </c>
       <c r="S18">
-        <v>0.002013318248202563</v>
+        <v>7.293796336973601E-06</v>
       </c>
       <c r="T18">
-        <v>0.002013318248202563</v>
+        <v>1.195337236344644E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H19">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I19">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J19">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.3843566022193</v>
+        <v>63.67333599999999</v>
       </c>
       <c r="N19">
-        <v>63.3843566022193</v>
+        <v>127.346672</v>
       </c>
       <c r="O19">
-        <v>0.8907580439843111</v>
+        <v>0.8715652181167722</v>
       </c>
       <c r="P19">
-        <v>0.8907580439843111</v>
+        <v>0.8279602359348489</v>
       </c>
       <c r="Q19">
-        <v>449.4155104484026</v>
+        <v>1.501650731778667</v>
       </c>
       <c r="R19">
-        <v>449.4155104484026</v>
+        <v>9.009904390672</v>
       </c>
       <c r="S19">
-        <v>0.04161420959686955</v>
+        <v>0.0001229214059714555</v>
       </c>
       <c r="T19">
-        <v>0.04161420959686955</v>
+        <v>0.0001342990919161346</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H20">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I20">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J20">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N20">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O20">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P20">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q20">
-        <v>77.45255738070527</v>
+        <v>0.1342863347968334</v>
       </c>
       <c r="R20">
-        <v>77.45255738070527</v>
+        <v>0.8057180087810001</v>
       </c>
       <c r="S20">
-        <v>0.007171819578363843</v>
+        <v>1.099234644025952E-05</v>
       </c>
       <c r="T20">
-        <v>0.007171819578363843</v>
+        <v>1.200980523520227E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H21">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I21">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J21">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N21">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O21">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P21">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q21">
-        <v>91.05453928428629</v>
+        <v>0.1657000846417778</v>
       </c>
       <c r="R21">
-        <v>91.05453928428629</v>
+        <v>1.491300761776</v>
       </c>
       <c r="S21">
-        <v>0.008431312659285076</v>
+        <v>1.356379812077274E-05</v>
       </c>
       <c r="T21">
-        <v>0.008431312659285076</v>
+        <v>2.222890825431044E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H22">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I22">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J22">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N22">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O22">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P22">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q22">
-        <v>18.0806909096015</v>
+        <v>0.03932676755155556</v>
       </c>
       <c r="R22">
-        <v>18.0806909096015</v>
+        <v>0.353940907964</v>
       </c>
       <c r="S22">
-        <v>0.001674204925454515</v>
+        <v>3.219191691815015E-06</v>
       </c>
       <c r="T22">
-        <v>0.001674204925454515</v>
+        <v>5.275743278779907E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H23">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I23">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J23">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N23">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O23">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P23">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q23">
-        <v>49.26182036482861</v>
+        <v>0.1066013608893333</v>
       </c>
       <c r="R23">
-        <v>49.26182036482861</v>
+        <v>0.9594122480040002</v>
       </c>
       <c r="S23">
-        <v>0.004561461876871901</v>
+        <v>8.726123113506236E-06</v>
       </c>
       <c r="T23">
-        <v>0.004561461876871901</v>
+        <v>1.430072818681092E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H24">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I24">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J24">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N24">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O24">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P24">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q24">
-        <v>153.659071370859</v>
+        <v>0.3005914839635556</v>
       </c>
       <c r="R24">
-        <v>153.659071370859</v>
+        <v>2.705323355672</v>
       </c>
       <c r="S24">
-        <v>0.01422826015975122</v>
+        <v>2.460567364295235E-05</v>
       </c>
       <c r="T24">
-        <v>0.01422826015975122</v>
+        <v>4.032478639644716E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.238679</v>
+      </c>
+      <c r="I25">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J25">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>63.67333599999999</v>
+      </c>
+      <c r="N25">
+        <v>127.346672</v>
+      </c>
+      <c r="O25">
+        <v>0.8715652181167722</v>
+      </c>
+      <c r="P25">
+        <v>0.8279602359348489</v>
+      </c>
+      <c r="Q25">
+        <v>5.065829387714667</v>
+      </c>
+      <c r="R25">
+        <v>30.394976326288</v>
+      </c>
+      <c r="S25">
+        <v>0.000414676234341013</v>
+      </c>
+      <c r="T25">
+        <v>0.0004530589385231459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.606016</v>
+      </c>
+      <c r="H26">
+        <v>25.818048</v>
+      </c>
+      <c r="I26">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J26">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6878695</v>
+      </c>
+      <c r="N26">
+        <v>3.375739</v>
+      </c>
+      <c r="O26">
+        <v>0.02310367952010788</v>
+      </c>
+      <c r="P26">
+        <v>0.02194778720950377</v>
+      </c>
+      <c r="Q26">
+        <v>14.525831922912</v>
+      </c>
+      <c r="R26">
+        <v>87.15499153747201</v>
+      </c>
+      <c r="S26">
+        <v>0.001189048588385445</v>
+      </c>
+      <c r="T26">
+        <v>0.001299107705466771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.606016</v>
+      </c>
+      <c r="H27">
+        <v>25.818048</v>
+      </c>
+      <c r="I27">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J27">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.082714666666666</v>
+      </c>
+      <c r="N27">
+        <v>6.248144</v>
+      </c>
+      <c r="O27">
+        <v>0.02850834865520999</v>
+      </c>
+      <c r="P27">
+        <v>0.04062308577953974</v>
+      </c>
+      <c r="Q27">
+        <v>17.923875744768</v>
+      </c>
+      <c r="R27">
+        <v>161.314881702912</v>
+      </c>
+      <c r="S27">
+        <v>0.001467204031123059</v>
+      </c>
+      <c r="T27">
+        <v>0.002404514097584551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.606016</v>
+      </c>
+      <c r="H28">
+        <v>25.818048</v>
+      </c>
+      <c r="I28">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J28">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4943053333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.482916</v>
+      </c>
+      <c r="O28">
+        <v>0.006766087073919772</v>
+      </c>
+      <c r="P28">
+        <v>0.009641362918628627</v>
+      </c>
+      <c r="Q28">
+        <v>4.253999607552</v>
+      </c>
+      <c r="R28">
+        <v>38.285996467968</v>
+      </c>
+      <c r="S28">
+        <v>0.0003482218612466168</v>
+      </c>
+      <c r="T28">
+        <v>0.0005706802576146918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.606016</v>
+      </c>
+      <c r="H29">
+        <v>25.818048</v>
+      </c>
+      <c r="I29">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J29">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.339892</v>
+      </c>
+      <c r="N29">
+        <v>4.019676</v>
+      </c>
+      <c r="O29">
+        <v>0.01834053838851664</v>
+      </c>
+      <c r="P29">
+        <v>0.02613442375111028</v>
+      </c>
+      <c r="Q29">
+        <v>11.531131990272</v>
+      </c>
+      <c r="R29">
+        <v>103.780187912448</v>
+      </c>
+      <c r="S29">
+        <v>0.0009439098764382851</v>
+      </c>
+      <c r="T29">
+        <v>0.00154691819038138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.606016</v>
+      </c>
+      <c r="H30">
+        <v>25.818048</v>
+      </c>
+      <c r="I30">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J30">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.778189333333334</v>
+      </c>
+      <c r="N30">
+        <v>11.334568</v>
+      </c>
+      <c r="O30">
+        <v>0.05171612824547357</v>
+      </c>
+      <c r="P30">
+        <v>0.07369310440636871</v>
+      </c>
+      <c r="Q30">
+        <v>32.515157853696</v>
+      </c>
+      <c r="R30">
+        <v>292.636420683264</v>
+      </c>
+      <c r="S30">
+        <v>0.002661610209469952</v>
+      </c>
+      <c r="T30">
+        <v>0.004361955893787135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.606016</v>
+      </c>
+      <c r="H31">
+        <v>25.818048</v>
+      </c>
+      <c r="I31">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J31">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>63.67333599999999</v>
+      </c>
+      <c r="N31">
+        <v>127.346672</v>
+      </c>
+      <c r="O31">
+        <v>0.8715652181167722</v>
+      </c>
+      <c r="P31">
+        <v>0.8279602359348489</v>
+      </c>
+      <c r="Q31">
+        <v>547.9737483893759</v>
+      </c>
+      <c r="R31">
+        <v>3287.842490336256</v>
+      </c>
+      <c r="S31">
+        <v>0.04485577249224072</v>
+      </c>
+      <c r="T31">
+        <v>0.04900765220911613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.592882</v>
+      </c>
+      <c r="H32">
+        <v>107.185764</v>
+      </c>
+      <c r="I32">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J32">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.6878695</v>
+      </c>
+      <c r="N32">
+        <v>3.375739</v>
+      </c>
+      <c r="O32">
+        <v>0.02310367952010788</v>
+      </c>
+      <c r="P32">
+        <v>0.02194778720950377</v>
+      </c>
+      <c r="Q32">
+        <v>90.457790944899</v>
+      </c>
+      <c r="R32">
+        <v>361.831163779596</v>
+      </c>
+      <c r="S32">
+        <v>0.007404650501417577</v>
+      </c>
+      <c r="T32">
+        <v>0.005393353205042567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.592882</v>
+      </c>
+      <c r="H33">
+        <v>107.185764</v>
+      </c>
+      <c r="I33">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J33">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.082714666666666</v>
+      </c>
+      <c r="N33">
+        <v>6.248144</v>
+      </c>
+      <c r="O33">
+        <v>0.02850834865520999</v>
+      </c>
+      <c r="P33">
+        <v>0.04062308577953974</v>
+      </c>
+      <c r="Q33">
+        <v>111.618681370336</v>
+      </c>
+      <c r="R33">
+        <v>669.712088222016</v>
+      </c>
+      <c r="S33">
+        <v>0.009136828529008358</v>
+      </c>
+      <c r="T33">
+        <v>0.009982539369295874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.592882</v>
+      </c>
+      <c r="H34">
+        <v>107.185764</v>
+      </c>
+      <c r="I34">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J34">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4943053333333333</v>
+      </c>
+      <c r="N34">
+        <v>1.482916</v>
+      </c>
+      <c r="O34">
+        <v>0.006766087073919772</v>
+      </c>
+      <c r="P34">
+        <v>0.009641362918628627</v>
+      </c>
+      <c r="Q34">
+        <v>26.491247401304</v>
+      </c>
+      <c r="R34">
+        <v>158.947484407824</v>
+      </c>
+      <c r="S34">
+        <v>0.002168507834474199</v>
+      </c>
+      <c r="T34">
+        <v>0.002369226341671824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="H25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="I25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="J25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>63.3843566022193</v>
-      </c>
-      <c r="N25">
-        <v>63.3843566022193</v>
-      </c>
-      <c r="O25">
-        <v>0.8907580439843111</v>
-      </c>
-      <c r="P25">
-        <v>0.8907580439843111</v>
-      </c>
-      <c r="Q25">
-        <v>3176.050685576419</v>
-      </c>
-      <c r="R25">
-        <v>3176.050685576419</v>
-      </c>
-      <c r="S25">
-        <v>0.2940905150068971</v>
-      </c>
-      <c r="T25">
-        <v>0.2940905150068971</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.592882</v>
+      </c>
+      <c r="H35">
+        <v>107.185764</v>
+      </c>
+      <c r="I35">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J35">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.339892</v>
+      </c>
+      <c r="N35">
+        <v>4.019676</v>
+      </c>
+      <c r="O35">
+        <v>0.01834053838851664</v>
+      </c>
+      <c r="P35">
+        <v>0.02613442375111028</v>
+      </c>
+      <c r="Q35">
+        <v>71.80867384874399</v>
+      </c>
+      <c r="R35">
+        <v>430.852043092464</v>
+      </c>
+      <c r="S35">
+        <v>0.005878080011307391</v>
+      </c>
+      <c r="T35">
+        <v>0.006422158951812532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.592882</v>
+      </c>
+      <c r="H36">
+        <v>107.185764</v>
+      </c>
+      <c r="I36">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J36">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.778189333333334</v>
+      </c>
+      <c r="N36">
+        <v>11.334568</v>
+      </c>
+      <c r="O36">
+        <v>0.05171612824547357</v>
+      </c>
+      <c r="P36">
+        <v>0.07369310440636871</v>
+      </c>
+      <c r="Q36">
+        <v>202.484055114992</v>
+      </c>
+      <c r="R36">
+        <v>1214.904330689952</v>
+      </c>
+      <c r="S36">
+        <v>0.01657484274792406</v>
+      </c>
+      <c r="T36">
+        <v>0.01810902106192834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.592882</v>
+      </c>
+      <c r="H37">
+        <v>107.185764</v>
+      </c>
+      <c r="I37">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J37">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>63.67333599999999</v>
+      </c>
+      <c r="N37">
+        <v>127.346672</v>
+      </c>
+      <c r="O37">
+        <v>0.8715652181167722</v>
+      </c>
+      <c r="P37">
+        <v>0.8279602359348489</v>
+      </c>
+      <c r="Q37">
+        <v>3412.437582794351</v>
+      </c>
+      <c r="R37">
+        <v>13649.75033117741</v>
+      </c>
+      <c r="S37">
+        <v>0.2793336803226374</v>
+      </c>
+      <c r="T37">
+        <v>0.2034593259676487</v>
       </c>
     </row>
   </sheetData>
